--- a/SupersNew/characters/testsheet.xlsx
+++ b/SupersNew/characters/testsheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rb\SupersNew\characters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magou\Desktop\Runebearer\SupersNew\characters\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8782FD7-49E1-499D-BCFD-826B4EC33EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610"/>
+    <workbookView xWindow="54840" yWindow="1365" windowWidth="17775" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Character Sheet" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="PowersTest" sheetId="5" r:id="rId5"/>
     <sheet name="Character Sheet Test" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +29,7 @@
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="283">
   <si>
     <t>Name</t>
   </si>
@@ -906,11 +908,23 @@
   <si>
     <t>2d8 + Muscle Physical Damage</t>
   </si>
+  <si>
+    <t>Voodoo</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Nanobot</t>
+  </si>
+  <si>
+    <t>Mastermind</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1601,11 +1615,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1699,18 +1713,18 @@
         <v>9</v>
       </c>
       <c r="B6" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" ref="C6:C12" si="0">(B6 - 10)/2</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="4" t="e">
-        <f>_xlfn.FLOOR.MATH(VLOOKUP(G2,'Fighting Profiles'!A2:F48,2,FALSE))</f>
+        <f>_xlfn.FLOOR.MATH(VLOOKUP(G2,'Fighting Profiles'!A2:F49,2,FALSE))</f>
         <v>#N/A</v>
       </c>
       <c r="G6" s="4"/>
@@ -1732,7 +1746,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="4" t="e">
-        <f>_xlfn.FLOOR.MATH(VLOOKUP(G2,'Fighting Profiles'!A2:F48,3,FALSE))</f>
+        <f>_xlfn.FLOOR.MATH(VLOOKUP(G2,'Fighting Profiles'!A2:F49,3,FALSE))</f>
         <v>#N/A</v>
       </c>
       <c r="G7" s="4"/>
@@ -1754,7 +1768,7 @@
         <v>12</v>
       </c>
       <c r="F8" s="4" t="e">
-        <f>_xlfn.FLOOR.MATH(VLOOKUP(G2,'Fighting Profiles'!A2:F48,4,FALSE))</f>
+        <f>_xlfn.FLOOR.MATH(VLOOKUP(G2,'Fighting Profiles'!A2:F49,4,FALSE))</f>
         <v>#N/A</v>
       </c>
       <c r="G8" s="4"/>
@@ -1765,18 +1779,18 @@
         <v>16</v>
       </c>
       <c r="B9" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="4" t="e">
-        <f>_xlfn.FLOOR.MATH(VLOOKUP(G2,'Fighting Profiles'!A2:F48,5,FALSE))</f>
+        <f>_xlfn.FLOOR.MATH(VLOOKUP(G2,'Fighting Profiles'!A2:F49,5,FALSE))</f>
         <v>#N/A</v>
       </c>
       <c r="G9" s="4"/>
@@ -1787,18 +1801,18 @@
         <v>17</v>
       </c>
       <c r="B10" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="4" t="e">
-        <f>_xlfn.FLOOR.MATH(VLOOKUP(G2,'Fighting Profiles'!A2:F48,6,FALSE))</f>
+        <f>_xlfn.FLOOR.MATH(VLOOKUP(G2,'Fighting Profiles'!A2:F49,6,FALSE))</f>
         <v>#N/A</v>
       </c>
       <c r="G10" s="4"/>
@@ -1854,7 +1868,7 @@
       </c>
       <c r="B14" s="4">
         <f>_xlfn.CEILING.MATH(B6*(0.5)) + _xlfn.CEILING.MATH(B10*(0.5))+8+B9</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="7" t="s">
@@ -1961,15 +1975,15 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>'Fighting Profiles'!$A$2:$A$48</xm:f>
+            <xm:f>'Fighting Profiles'!$A$2:$A$49</xm:f>
           </x14:formula1>
           <xm:sqref>G2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
-            <xm:f>'Power Sets'!$A$2:$A$48</xm:f>
+            <xm:f>'Power Sets'!$A$2:$A$51</xm:f>
           </x14:formula1>
           <xm:sqref>B3:C3</xm:sqref>
         </x14:dataValidation>
@@ -1980,11 +1994,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2139,113 +2153,128 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>196</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>199</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>200</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>211</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A48">
-    <sortCondition ref="A48"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A51">
+    <sortCondition ref="A51"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F48"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2289,7 +2318,7 @@
       </c>
       <c r="B2" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+2+8</f>
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="C2" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+2+8</f>
@@ -2297,7 +2326,7 @@
       </c>
       <c r="D2" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C10+2+8</f>
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="E2" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+2+8</f>
@@ -2305,7 +2334,7 @@
       </c>
       <c r="F2" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C12+'Character Sheet'!C10+2+8</f>
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -2317,11 +2346,11 @@
       </c>
       <c r="B3" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C10+3+8</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C10+'Character Sheet'!C7+2+8</f>
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="D3" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+2+8</f>
@@ -2329,11 +2358,11 @@
       </c>
       <c r="E3" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C10+2+8</f>
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="F3" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C12+'Character Sheet'!C10+1+8</f>
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -2347,7 +2376,7 @@
       </c>
       <c r="B4" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+3+8</f>
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="C4" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C11+'Character Sheet'!C7+3+8</f>
@@ -2355,7 +2384,7 @@
       </c>
       <c r="D4" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C11+'Character Sheet'!C10+1+8</f>
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="E4" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C11+'Character Sheet'!C7+0+8</f>
@@ -2377,7 +2406,7 @@
       </c>
       <c r="B5" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+1+8</f>
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="C5" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+2+8</f>
@@ -2407,15 +2436,15 @@
       </c>
       <c r="B6" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+5+8</f>
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="C6" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+2+8</f>
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="D6" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C6+1+8</f>
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="E6" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+2+8</f>
@@ -2423,7 +2452,7 @@
       </c>
       <c r="F6" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C9+'Character Sheet'!C11+0+8</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -2437,7 +2466,7 @@
       </c>
       <c r="B7" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+1+8</f>
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="C7" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+1+8</f>
@@ -2449,11 +2478,11 @@
       </c>
       <c r="E7" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C10+3+8</f>
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="F7" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C10+'Character Sheet'!C11+1+8</f>
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -2467,11 +2496,11 @@
       </c>
       <c r="B8" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+2+8</f>
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="C8" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C9+'Character Sheet'!C7+2+8</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+3+8</f>
@@ -2483,7 +2512,7 @@
       </c>
       <c r="F8" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C9+'Character Sheet'!C11+1+8</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -2497,7 +2526,7 @@
       </c>
       <c r="B9" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C10+'Character Sheet'!C11+2+8</f>
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="C9" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C11+'Character Sheet'!C7+3+8</f>
@@ -2509,7 +2538,7 @@
       </c>
       <c r="E9" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C10+2+8</f>
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="F9" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C12+'Character Sheet'!C11+1+8</f>
@@ -2531,7 +2560,7 @@
       </c>
       <c r="C10" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+2+8</f>
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="D10" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+2+8</f>
@@ -2555,15 +2584,15 @@
       </c>
       <c r="B11" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+4+8</f>
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="C11" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C7+'Character Sheet'!C9+3+8</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+2+8</f>
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="E11" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+8</f>
@@ -2571,7 +2600,7 @@
       </c>
       <c r="F11" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C9+'Character Sheet'!C11+1+8</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -2585,11 +2614,11 @@
       </c>
       <c r="B12" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C10+0+8</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C10+2+8</f>
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="D12" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C11+'Character Sheet'!C8+3+8</f>
@@ -2615,11 +2644,11 @@
       </c>
       <c r="B13" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+2+8</f>
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="C13" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+2+8</f>
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="D13" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C11+'Character Sheet'!C8+4+8</f>
@@ -2645,11 +2674,11 @@
       </c>
       <c r="B14" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+2+8</f>
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="C14" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C9+3+8</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+2+8</f>
@@ -2661,7 +2690,7 @@
       </c>
       <c r="F14" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C9+'Character Sheet'!C11+2+8</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -2683,7 +2712,7 @@
       </c>
       <c r="D15" s="11">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C10+2+8</f>
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="E15" s="11">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+3+8</f>
@@ -2691,7 +2720,7 @@
       </c>
       <c r="F15" s="11">
         <f xml:space="preserve"> 'Character Sheet'!C10+'Character Sheet'!C12+3+8</f>
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -2717,7 +2746,7 @@
       </c>
       <c r="E16" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C12+'Character Sheet'!C10+3+8</f>
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="F16" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C12+'Character Sheet'!C11+5+8</f>
@@ -2735,11 +2764,11 @@
       </c>
       <c r="B17" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C10+1+8</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C10+3+8</f>
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="D17" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+2+8</f>
@@ -2747,11 +2776,11 @@
       </c>
       <c r="E17" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C10+2+8</f>
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="F17" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C10+'Character Sheet'!C12+2+8</f>
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -2765,11 +2794,11 @@
       </c>
       <c r="B18" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C8+3+8</f>
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="C18" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+2+8</f>
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="D18" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+2+8</f>
@@ -2793,7 +2822,7 @@
       </c>
       <c r="B19" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+2+8</f>
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="C19" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+3+8</f>
@@ -2823,11 +2852,11 @@
       </c>
       <c r="B20" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+4+8</f>
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="C20" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+4+8</f>
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="D20" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+0+8</f>
@@ -2853,11 +2882,11 @@
       </c>
       <c r="B21" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C10+'Character Sheet'!C6+2+8</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C10+2+8</f>
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="D21" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+2+8</f>
@@ -2865,11 +2894,11 @@
       </c>
       <c r="E21" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C10+2+8</f>
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="F21" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C10+'Character Sheet'!C11+2+8</f>
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -2883,7 +2912,7 @@
       </c>
       <c r="B22" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C8+4+8</f>
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="C22" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+1+8</f>
@@ -2891,15 +2920,15 @@
       </c>
       <c r="D22" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C10+1+8</f>
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="E22" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C10+3+8</f>
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="F22" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C10+'Character Sheet'!C11+1+8</f>
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -2913,15 +2942,15 @@
       </c>
       <c r="B23" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+3+8</f>
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="C23" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+2+8</f>
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="D23" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+3+8</f>
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="E23" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+2+8</f>
@@ -2929,7 +2958,7 @@
       </c>
       <c r="F23" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C9+'Character Sheet'!C11+0+8</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -2943,11 +2972,11 @@
       </c>
       <c r="B24" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+3+8</f>
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="C24" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C9+4+8</f>
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="D24" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+0+8</f>
@@ -2955,11 +2984,11 @@
       </c>
       <c r="E24" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C9+2+8</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C11+'Character Sheet'!C9+2+8</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -2973,7 +3002,7 @@
       </c>
       <c r="B25" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C12+3+8</f>
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="C25" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C12+'Character Sheet'!C7+3+8</f>
@@ -3007,19 +3036,19 @@
       </c>
       <c r="C26" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C10+'Character Sheet'!C7+2+8</f>
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="D26" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C10+'Character Sheet'!C11+2+8</f>
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="E26" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C10+2+8</f>
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="F26" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C10+'Character Sheet'!C12+2+8</f>
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -3031,15 +3060,15 @@
       </c>
       <c r="B27" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C10+'Character Sheet'!C6+0+8</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C10+2+8</f>
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="D27" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C10+3+8</f>
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="E27" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+3+8</f>
@@ -3047,7 +3076,7 @@
       </c>
       <c r="F27" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C10+'Character Sheet'!C11+2+8</f>
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -3061,7 +3090,7 @@
       </c>
       <c r="B28" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+3+8</f>
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="C28" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+3+8</f>
@@ -3069,7 +3098,7 @@
       </c>
       <c r="D28" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C10+1+8</f>
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="E28" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+2+8</f>
@@ -3077,7 +3106,7 @@
       </c>
       <c r="F28" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C12+'Character Sheet'!C10+1+8</f>
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -3087,615 +3116,643 @@
     </row>
     <row r="29" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>86</v>
+        <v>282</v>
       </c>
       <c r="B29" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+0+8</f>
-        <v>8</v>
+        <f>'Character Sheet'!C6+'Character Sheet'!C10+8</f>
+        <v>9</v>
       </c>
       <c r="C29" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C10+1+8</f>
-        <v>9</v>
+        <f>'Character Sheet'!C7+'Character Sheet'!C10+10</f>
+        <v>10.5</v>
       </c>
       <c r="D29" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C10+'Character Sheet'!C7+2+8</f>
+        <f>'Character Sheet'!C8+'Character Sheet'!C7+10</f>
         <v>10</v>
       </c>
       <c r="E29" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C10+3+8</f>
-        <v>11</v>
+        <f>'Character Sheet'!C8+'Character Sheet'!C10+11</f>
+        <v>11.5</v>
       </c>
       <c r="F29" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C11+'Character Sheet'!C10+4+8</f>
-        <v>12</v>
+        <f>'Character Sheet'!C12+'Character Sheet'!C10+11</f>
+        <v>11.5</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="B30" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+3+8</f>
-        <v>11</v>
+        <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+0+8</f>
+        <v>8.5</v>
       </c>
       <c r="C30" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+2+8</f>
-        <v>10</v>
+        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C10+1+8</f>
+        <v>9.5</v>
       </c>
       <c r="D30" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+1+8</f>
-        <v>9</v>
+        <f xml:space="preserve"> 'Character Sheet'!C10+'Character Sheet'!C7+2+8</f>
+        <v>10.5</v>
       </c>
       <c r="E30" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C10+4+8</f>
-        <v>12</v>
+        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C10+3+8</f>
+        <v>11.5</v>
       </c>
       <c r="F30" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C12+'Character Sheet'!C8+0+8</f>
-        <v>8</v>
+        <f xml:space="preserve"> 'Character Sheet'!C11+'Character Sheet'!C10+4+8</f>
+        <v>12.5</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="B31" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+3+8</f>
+        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+3+8</f>
         <v>11</v>
       </c>
       <c r="C31" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C9+3+8</f>
-        <v>11</v>
+        <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+2+8</f>
+        <v>10.5</v>
       </c>
       <c r="D31" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+2+8</f>
-        <v>10</v>
+        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+1+8</f>
+        <v>9</v>
       </c>
       <c r="E31" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C9+2+8</f>
-        <v>10</v>
+        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C10+4+8</f>
+        <v>12.5</v>
       </c>
       <c r="F31" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C9+'Character Sheet'!C10+0+8</f>
+        <f xml:space="preserve"> 'Character Sheet'!C12+'Character Sheet'!C8+0+8</f>
         <v>8</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B32" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+0+8</f>
-        <v>8</v>
+        <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+3+8</f>
+        <v>11.5</v>
       </c>
       <c r="C32" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C10+'Character Sheet'!C7+1+8</f>
-        <v>9</v>
+        <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C9+3+8</f>
+        <v>12.5</v>
       </c>
       <c r="D32" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C10+3+8</f>
+        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+2+8</f>
+        <v>10</v>
+      </c>
+      <c r="E32" s="4">
+        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C9+2+8</f>
         <v>11</v>
       </c>
-      <c r="E32" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C10+3+8</f>
-        <v>11</v>
-      </c>
       <c r="F32" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C10+'Character Sheet'!C12+3+8</f>
-        <v>11</v>
+        <f xml:space="preserve"> 'Character Sheet'!C9+'Character Sheet'!C10+0+8</f>
+        <v>9.5</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B33" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C11+0+8</f>
-        <v>8</v>
+        <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+0+8</f>
+        <v>8.5</v>
       </c>
       <c r="C33" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C12+'Character Sheet'!C7+1+8</f>
-        <v>9</v>
+        <f xml:space="preserve"> 'Character Sheet'!C10+'Character Sheet'!C7+1+8</f>
+        <v>9.5</v>
       </c>
       <c r="D33" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+1+8</f>
-        <v>9</v>
+        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C10+3+8</f>
+        <v>11.5</v>
       </c>
       <c r="E33" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C12+'Character Sheet'!C8+3+8</f>
-        <v>11</v>
+        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C10+3+8</f>
+        <v>11.5</v>
       </c>
       <c r="F33" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C12+'Character Sheet'!C11+5+8</f>
-        <v>13</v>
+        <f xml:space="preserve"> 'Character Sheet'!C10+'Character Sheet'!C12+3+8</f>
+        <v>11.5</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="4">
+        <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C11+0+8</f>
+        <v>8.5</v>
+      </c>
+      <c r="C34" s="4">
+        <f xml:space="preserve"> 'Character Sheet'!C12+'Character Sheet'!C7+1+8</f>
+        <v>9</v>
+      </c>
+      <c r="D34" s="4">
+        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+1+8</f>
+        <v>9</v>
+      </c>
+      <c r="E34" s="4">
+        <f xml:space="preserve"> 'Character Sheet'!C12+'Character Sheet'!C8+3+8</f>
+        <v>11</v>
+      </c>
+      <c r="F34" s="4">
+        <f xml:space="preserve"> 'Character Sheet'!C12+'Character Sheet'!C11+5+8</f>
+        <v>13</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B35" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+3+8</f>
-        <v>11</v>
-      </c>
-      <c r="C34" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="C35" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C11+4+8</f>
-        <v>12</v>
-      </c>
-      <c r="D34" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="D35" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C11+'Character Sheet'!C7+1+8</f>
         <v>9</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E35" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+2+8</f>
         <v>10</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F35" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C11+'Character Sheet'!C12+0+8</f>
         <v>8</v>
       </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B36" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C8+2+8</f>
-        <v>10</v>
-      </c>
-      <c r="C35" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="C36" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C7+'Character Sheet'!C8+0+8</f>
         <v>8</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D36" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C11+'Character Sheet'!C8+2+8</f>
         <v>10</v>
-      </c>
-      <c r="E35" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C11+3+8</f>
-        <v>11</v>
-      </c>
-      <c r="F35" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C10+'Character Sheet'!C11+3+8</f>
-        <v>11</v>
-      </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+0+8</f>
-        <v>8</v>
-      </c>
-      <c r="C36" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+1+8</f>
-        <v>9</v>
-      </c>
-      <c r="D36" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C11+'Character Sheet'!C7+5+8</f>
-        <v>13</v>
       </c>
       <c r="E36" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C11+3+8</f>
         <v>11</v>
       </c>
       <c r="F36" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C12+'Character Sheet'!C11+0+8</f>
-        <v>8</v>
+        <f xml:space="preserve"> 'Character Sheet'!C10+'Character Sheet'!C11+3+8</f>
+        <v>11.5</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B37" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+3+8</f>
+        <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+0+8</f>
+        <v>8.5</v>
+      </c>
+      <c r="C37" s="4">
+        <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+1+8</f>
+        <v>9.5</v>
+      </c>
+      <c r="D37" s="4">
+        <f xml:space="preserve"> 'Character Sheet'!C11+'Character Sheet'!C7+5+8</f>
+        <v>13</v>
+      </c>
+      <c r="E37" s="4">
+        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C11+3+8</f>
         <v>11</v>
       </c>
-      <c r="C37" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+2+8</f>
-        <v>10</v>
-      </c>
-      <c r="D37" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+3+8</f>
-        <v>11</v>
-      </c>
-      <c r="E37" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+2+8</f>
-        <v>10</v>
-      </c>
       <c r="F37" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C10+'Character Sheet'!C11+0+8</f>
+        <f xml:space="preserve"> 'Character Sheet'!C12+'Character Sheet'!C11+0+8</f>
         <v>8</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B38" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C8+3+8</f>
+        <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+3+8</f>
+        <v>11.5</v>
+      </c>
+      <c r="C38" s="4">
+        <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+2+8</f>
+        <v>10.5</v>
+      </c>
+      <c r="D38" s="4">
+        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+3+8</f>
         <v>11</v>
       </c>
-      <c r="C38" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+1+8</f>
-        <v>9</v>
-      </c>
-      <c r="D38" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+1+8</f>
-        <v>9</v>
-      </c>
       <c r="E38" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+5+8</f>
-        <v>13</v>
+        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+2+8</f>
+        <v>10</v>
       </c>
       <c r="F38" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C11+'Character Sheet'!C12+0+8</f>
-        <v>8</v>
+        <f xml:space="preserve"> 'Character Sheet'!C10+'Character Sheet'!C11+0+8</f>
+        <v>8.5</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B39" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+0+8</f>
+        <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C8+3+8</f>
+        <v>11.5</v>
+      </c>
+      <c r="C39" s="4">
+        <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+1+8</f>
+        <v>9.5</v>
+      </c>
+      <c r="D39" s="4">
+        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+1+8</f>
+        <v>9</v>
+      </c>
+      <c r="E39" s="4">
+        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+5+8</f>
+        <v>13</v>
+      </c>
+      <c r="F39" s="4">
+        <f xml:space="preserve"> 'Character Sheet'!C11+'Character Sheet'!C12+0+8</f>
         <v>8</v>
-      </c>
-      <c r="C39" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+2+8</f>
-        <v>10</v>
-      </c>
-      <c r="D39" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C11+'Character Sheet'!C7+2+8</f>
-        <v>10</v>
-      </c>
-      <c r="E39" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C10+3+8</f>
-        <v>11</v>
-      </c>
-      <c r="F39" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C12+'Character Sheet'!C11+3+8</f>
-        <v>11</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B40" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C11+'Character Sheet'!C7+3+8</f>
-        <v>11</v>
+        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+0+8</f>
+        <v>8</v>
       </c>
       <c r="C40" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C9+'Character Sheet'!C11+3+8</f>
-        <v>11</v>
+        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+2+8</f>
+        <v>10</v>
       </c>
       <c r="D40" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C11+'Character Sheet'!C7+2+8</f>
         <v>10</v>
       </c>
       <c r="E40" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C11+2+8</f>
-        <v>10</v>
+        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C10+3+8</f>
+        <v>11.5</v>
       </c>
       <c r="F40" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C12+'Character Sheet'!C8+0+8</f>
-        <v>8</v>
+        <f xml:space="preserve"> 'Character Sheet'!C12+'Character Sheet'!C11+3+8</f>
+        <v>11</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B41" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C11+0+8</f>
-        <v>8</v>
+        <f xml:space="preserve"> 'Character Sheet'!C11+'Character Sheet'!C7+3+8</f>
+        <v>11</v>
       </c>
       <c r="C41" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+2+8</f>
-        <v>10</v>
+        <f xml:space="preserve"> 'Character Sheet'!C9+'Character Sheet'!C11+3+8</f>
+        <v>12</v>
       </c>
       <c r="D41" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C11+'Character Sheet'!C7+4+8</f>
-        <v>12</v>
+        <f xml:space="preserve"> 'Character Sheet'!C11+'Character Sheet'!C7+2+8</f>
+        <v>10</v>
       </c>
       <c r="E41" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C11+2+8</f>
         <v>10</v>
       </c>
       <c r="F41" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C12+'Character Sheet'!C11+2+8</f>
-        <v>10</v>
+        <f xml:space="preserve"> 'Character Sheet'!C12+'Character Sheet'!C8+0+8</f>
+        <v>8</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="4">
+        <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C11+0+8</f>
+        <v>8.5</v>
+      </c>
+      <c r="C42" s="4">
+        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+2+8</f>
+        <v>10</v>
+      </c>
+      <c r="D42" s="4">
+        <f xml:space="preserve"> 'Character Sheet'!C11+'Character Sheet'!C7+4+8</f>
+        <v>12</v>
+      </c>
+      <c r="E42" s="4">
+        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C11+2+8</f>
+        <v>10</v>
+      </c>
+      <c r="F42" s="4">
+        <f xml:space="preserve"> 'Character Sheet'!C12+'Character Sheet'!C11+2+8</f>
+        <v>10</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B43" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C8+2+8</f>
-        <v>10</v>
-      </c>
-      <c r="C42" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="C43" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+0+8</f>
         <v>8</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D43" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C10+4+8</f>
-        <v>12</v>
-      </c>
-      <c r="E42" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="E43" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C10+3+8</f>
-        <v>11</v>
-      </c>
-      <c r="F42" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="F43" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C10+'Character Sheet'!C11+1+8</f>
-        <v>9</v>
-      </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-    </row>
-    <row r="43" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+        <v>9.5</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B44" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+0+8</f>
-        <v>8</v>
-      </c>
-      <c r="C43" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="C44" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+2+8</f>
-        <v>10</v>
-      </c>
-      <c r="D43" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="D44" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C7+'Character Sheet'!C11+4+8</f>
         <v>12</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E44" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+3+8</f>
         <v>11</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F44" s="4">
         <f xml:space="preserve"> 'Character Sheet'!C12+'Character Sheet'!C11+1+8</f>
         <v>9</v>
-      </c>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C11+4+8</f>
-        <v>12</v>
-      </c>
-      <c r="C44" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C9+3+8</f>
-        <v>11</v>
-      </c>
-      <c r="D44" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C11+2+8</f>
-        <v>10</v>
-      </c>
-      <c r="E44" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C9+0+8</f>
-        <v>8</v>
-      </c>
-      <c r="F44" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C12+'Character Sheet'!C11+0+8</f>
-        <v>8</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="B45" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C10+'Character Sheet'!C7+3+8</f>
-        <v>11</v>
+        <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C11+4+8</f>
+        <v>12.5</v>
       </c>
       <c r="C45" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+2+8</f>
-        <v>10</v>
+        <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C9+3+8</f>
+        <v>12.5</v>
       </c>
       <c r="D45" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C10+1+8</f>
+        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C11+2+8</f>
+        <v>10</v>
+      </c>
+      <c r="E45" s="4">
+        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C9+0+8</f>
         <v>9</v>
       </c>
-      <c r="E45" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C2+'Character Sheet'!C7+2+8</f>
-        <v>10</v>
-      </c>
       <c r="F45" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C12+'Character Sheet'!C11+1+8</f>
-        <v>9</v>
+        <f xml:space="preserve"> 'Character Sheet'!C12+'Character Sheet'!C11+0+8</f>
+        <v>8</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B46" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C8+1+8</f>
+        <f xml:space="preserve"> 'Character Sheet'!C10+'Character Sheet'!C7+3+8</f>
+        <v>11.5</v>
+      </c>
+      <c r="C46" s="4">
+        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+2+8</f>
+        <v>10</v>
+      </c>
+      <c r="D46" s="4">
+        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C10+1+8</f>
+        <v>9.5</v>
+      </c>
+      <c r="E46" s="4">
+        <f xml:space="preserve"> 'Character Sheet'!C2+'Character Sheet'!C7+2+8</f>
+        <v>10</v>
+      </c>
+      <c r="F46" s="4">
+        <f xml:space="preserve"> 'Character Sheet'!C12+'Character Sheet'!C11+1+8</f>
         <v>9</v>
-      </c>
-      <c r="C46" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C10+'Character Sheet'!C7+2+8</f>
-        <v>10</v>
-      </c>
-      <c r="D46" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C10+'Character Sheet'!C7+2+8</f>
-        <v>10</v>
-      </c>
-      <c r="E46" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C12+'Character Sheet'!C8+3+8</f>
-        <v>11</v>
-      </c>
-      <c r="F46" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C10+'Character Sheet'!C12+2+8</f>
-        <v>10</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="B47" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+3+8</f>
+        <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C8+1+8</f>
+        <v>9.5</v>
+      </c>
+      <c r="C47" s="4">
+        <f xml:space="preserve"> 'Character Sheet'!C10+'Character Sheet'!C7+2+8</f>
+        <v>10.5</v>
+      </c>
+      <c r="D47" s="4">
+        <f xml:space="preserve"> 'Character Sheet'!C10+'Character Sheet'!C7+2+8</f>
+        <v>10.5</v>
+      </c>
+      <c r="E47" s="4">
+        <f xml:space="preserve"> 'Character Sheet'!C12+'Character Sheet'!C8+3+8</f>
         <v>11</v>
       </c>
-      <c r="C47" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C9+3+8</f>
-        <v>11</v>
-      </c>
-      <c r="D47" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+2+8</f>
-        <v>10</v>
-      </c>
-      <c r="E47" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+2+8</f>
-        <v>10</v>
-      </c>
       <c r="F47" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C9+'Character Sheet'!C11+0+8</f>
-        <v>8</v>
+        <f xml:space="preserve"> 'Character Sheet'!C10+'Character Sheet'!C12+2+8</f>
+        <v>10.5</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="B48" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C10+1+8</f>
+        <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C7+3+8</f>
+        <v>11.5</v>
+      </c>
+      <c r="C48" s="4">
+        <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C9+3+8</f>
+        <v>12.5</v>
+      </c>
+      <c r="D48" s="4">
+        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+2+8</f>
+        <v>10</v>
+      </c>
+      <c r="E48" s="4">
+        <f xml:space="preserve"> 'Character Sheet'!C8+'Character Sheet'!C7+2+8</f>
+        <v>10</v>
+      </c>
+      <c r="F48" s="4">
+        <f xml:space="preserve"> 'Character Sheet'!C9+'Character Sheet'!C11+0+8</f>
         <v>9</v>
-      </c>
-      <c r="C48" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C7+'Character Sheet'!C8+2+8</f>
-        <v>10</v>
-      </c>
-      <c r="D48" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C10+'Character Sheet'!C8+2+8</f>
-        <v>10</v>
-      </c>
-      <c r="E48" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C10+'Character Sheet'!C7+3+8</f>
-        <v>11</v>
-      </c>
-      <c r="F48" s="4">
-        <f xml:space="preserve"> 'Character Sheet'!C10+'Character Sheet'!C12+2+8</f>
-        <v>10</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
+      <c r="A49" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="4">
+        <f xml:space="preserve"> 'Character Sheet'!C6+'Character Sheet'!C10+1+8</f>
+        <v>10</v>
+      </c>
+      <c r="C49" s="4">
+        <f xml:space="preserve"> 'Character Sheet'!C7+'Character Sheet'!C8+2+8</f>
+        <v>10</v>
+      </c>
+      <c r="D49" s="4">
+        <f xml:space="preserve"> 'Character Sheet'!C10+'Character Sheet'!C8+2+8</f>
+        <v>10.5</v>
+      </c>
+      <c r="E49" s="4">
+        <f xml:space="preserve"> 'Character Sheet'!C10+'Character Sheet'!C7+3+8</f>
+        <v>11.5</v>
+      </c>
+      <c r="F49" s="4">
+        <f xml:space="preserve"> 'Character Sheet'!C10+'Character Sheet'!C12+2+8</f>
+        <v>10.5</v>
+      </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F48">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F49">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3703,7 +3760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -4153,7 +4210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -4778,7 +4835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4903,7 +4960,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="4">
-        <f>_xlfn.FLOOR.MATH(VLOOKUP(G2,'Fighting Profiles'!A2:F48,2,FALSE))</f>
+        <f>_xlfn.FLOOR.MATH(VLOOKUP(G2,'Fighting Profiles'!A2:F49,2,FALSE))</f>
         <v>10</v>
       </c>
       <c r="G7" s="4"/>
@@ -4925,7 +4982,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="4">
-        <f>_xlfn.FLOOR.MATH(VLOOKUP(G2,'Fighting Profiles'!A2:F48,3,FALSE))</f>
+        <f>_xlfn.FLOOR.MATH(VLOOKUP(G2,'Fighting Profiles'!A2:F49,3,FALSE))</f>
         <v>10</v>
       </c>
       <c r="G8" s="4"/>
@@ -4947,7 +5004,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="4">
-        <f>_xlfn.FLOOR.MATH(VLOOKUP(G2,'Fighting Profiles'!A2:F48,4,FALSE))</f>
+        <f>_xlfn.FLOOR.MATH(VLOOKUP(G2,'Fighting Profiles'!A2:F49,4,FALSE))</f>
         <v>10</v>
       </c>
       <c r="G9" s="4"/>
@@ -4969,7 +5026,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="4">
-        <f>_xlfn.FLOOR.MATH(VLOOKUP(G2,'Fighting Profiles'!A2:F48,5,FALSE))</f>
+        <f>_xlfn.FLOOR.MATH(VLOOKUP(G2,'Fighting Profiles'!A2:F49,5,FALSE))</f>
         <v>10</v>
       </c>
       <c r="G10" s="4"/>
@@ -4991,7 +5048,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="4">
-        <f>_xlfn.FLOOR.MATH(VLOOKUP(G2,'Fighting Profiles'!A2:F48,6,FALSE))</f>
+        <f>_xlfn.FLOOR.MATH(VLOOKUP(G2,'Fighting Profiles'!A2:F49,6,FALSE))</f>
         <v>10</v>
       </c>
       <c r="G11" s="4"/>
@@ -5244,23 +5301,23 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Power Sets'!$A$2:$A$48</xm:f>
-          </x14:formula1>
-          <xm:sqref>B3:C3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000001000000}">
           <x14:formula1>
             <xm:f>'Day Jobs'!$A$4:$A$15</xm:f>
           </x14:formula1>
           <xm:sqref>B19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000002000000}">
           <x14:formula1>
-            <xm:f>'Fighting Profiles'!$A$2:$A$48</xm:f>
+            <xm:f>'Fighting Profiles'!$A$2:$A$49</xm:f>
           </x14:formula1>
           <xm:sqref>G2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
+          <x14:formula1>
+            <xm:f>'Power Sets'!$A$2:$A$51</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3:C3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
